--- a/thresholds/IGCSE/global-perspectives/global-perspectives-thresholds.xlsx
+++ b/thresholds/IGCSE/global-perspectives/global-perspectives-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>date</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -528,6 +533,11 @@
           <t>June 2022</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -567,6 +577,11 @@
           <t>June 2022</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -606,6 +621,11 @@
           <t>June 2022</t>
         </is>
       </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -645,6 +665,11 @@
           <t>June 2022</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -684,6 +709,11 @@
           <t>June 2022</t>
         </is>
       </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -723,6 +753,11 @@
           <t>June 2022</t>
         </is>
       </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -762,6 +797,11 @@
           <t>November 2022</t>
         </is>
       </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -801,6 +841,11 @@
           <t>November 2022</t>
         </is>
       </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -840,6 +885,11 @@
           <t>November 2022</t>
         </is>
       </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -879,6 +929,11 @@
           <t>November 2022</t>
         </is>
       </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -918,6 +973,11 @@
           <t>November 2022</t>
         </is>
       </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -957,6 +1017,11 @@
           <t>November 2022</t>
         </is>
       </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -996,6 +1061,11 @@
           <t>November 2022</t>
         </is>
       </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1035,6 +1105,11 @@
           <t>November 2023</t>
         </is>
       </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1074,6 +1149,11 @@
           <t>November 2023</t>
         </is>
       </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1113,6 +1193,11 @@
           <t>November 2023</t>
         </is>
       </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1152,6 +1237,11 @@
           <t>November 2023</t>
         </is>
       </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1191,6 +1281,11 @@
           <t>November 2023</t>
         </is>
       </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1230,6 +1325,11 @@
           <t>November 2023</t>
         </is>
       </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1269,6 +1369,11 @@
           <t>November 2023</t>
         </is>
       </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1308,6 +1413,11 @@
           <t>November 2023</t>
         </is>
       </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1347,6 +1457,11 @@
           <t>November 2023</t>
         </is>
       </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1386,6 +1501,11 @@
           <t>November 2023</t>
         </is>
       </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1425,6 +1545,11 @@
           <t>November 2023</t>
         </is>
       </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1464,6 +1589,11 @@
           <t>November 2023</t>
         </is>
       </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1503,6 +1633,11 @@
           <t>March 2022</t>
         </is>
       </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1542,6 +1677,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1581,6 +1721,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1620,6 +1765,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1659,6 +1809,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1698,6 +1853,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1737,6 +1897,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1776,6 +1941,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1815,6 +1985,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1854,6 +2029,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1893,6 +2073,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1932,6 +2117,11 @@
           <t>June 2024</t>
         </is>
       </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1971,6 +2161,11 @@
           <t>June 2024</t>
         </is>
       </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2010,6 +2205,11 @@
           <t>June 2024</t>
         </is>
       </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -2049,6 +2249,11 @@
           <t>June 2024</t>
         </is>
       </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2088,6 +2293,11 @@
           <t>June 2024</t>
         </is>
       </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2127,6 +2337,11 @@
           <t>June 2024</t>
         </is>
       </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2166,6 +2381,11 @@
           <t>June 2024</t>
         </is>
       </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2205,6 +2425,11 @@
           <t>June 2024</t>
         </is>
       </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2244,6 +2469,11 @@
           <t>June 2024</t>
         </is>
       </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2283,6 +2513,11 @@
           <t>June 2024</t>
         </is>
       </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2322,6 +2557,11 @@
           <t>June 2024</t>
         </is>
       </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2361,6 +2601,11 @@
           <t>June 2024</t>
         </is>
       </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2400,6 +2645,11 @@
           <t>June 2024</t>
         </is>
       </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2439,6 +2689,11 @@
           <t>June 2024</t>
         </is>
       </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2478,6 +2733,11 @@
           <t>June 2025</t>
         </is>
       </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -2517,6 +2777,11 @@
           <t>June 2025</t>
         </is>
       </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -2556,6 +2821,11 @@
           <t>June 2025</t>
         </is>
       </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -2595,6 +2865,11 @@
           <t>June 2025</t>
         </is>
       </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -2634,6 +2909,11 @@
           <t>June 2025</t>
         </is>
       </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -2673,6 +2953,11 @@
           <t>June 2025</t>
         </is>
       </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2712,6 +2997,11 @@
           <t>June 2025</t>
         </is>
       </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -2751,6 +3041,11 @@
           <t>June 2025</t>
         </is>
       </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -2790,6 +3085,11 @@
           <t>June 2025</t>
         </is>
       </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -2829,6 +3129,11 @@
           <t>March 2023</t>
         </is>
       </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -2868,6 +3173,11 @@
           <t>March 2024</t>
         </is>
       </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -2907,6 +3217,11 @@
           <t>March 2025</t>
         </is>
       </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>global-perspectives</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -2946,6 +3261,7 @@
           <t>November 2024</t>
         </is>
       </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -2985,6 +3301,7 @@
           <t>November 2024</t>
         </is>
       </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -3024,6 +3341,7 @@
           <t>November 2024</t>
         </is>
       </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -3063,6 +3381,7 @@
           <t>November 2024</t>
         </is>
       </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -3102,6 +3421,7 @@
           <t>November 2024</t>
         </is>
       </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -3141,6 +3461,7 @@
           <t>November 2024</t>
         </is>
       </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -3180,6 +3501,7 @@
           <t>November 2024</t>
         </is>
       </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -3219,6 +3541,7 @@
           <t>November 2024</t>
         </is>
       </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -3258,6 +3581,7 @@
           <t>November 2024</t>
         </is>
       </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -3297,6 +3621,7 @@
           <t>November 2024</t>
         </is>
       </c>
+      <c r="L73" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/thresholds/IGCSE/global-perspectives/global-perspectives-thresholds.xlsx
+++ b/thresholds/IGCSE/global-perspectives/global-perspectives-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,11 +489,6 @@
           <t>date</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>subject</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -525,17 +520,14 @@
       <c r="I2" t="n">
         <v>64</v>
       </c>
-      <c r="J2" t="n">
-        <v>52</v>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>June 2022</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
@@ -569,17 +561,14 @@
       <c r="I3" t="n">
         <v>64</v>
       </c>
-      <c r="J3" t="n">
-        <v>52</v>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>June 2022</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
@@ -613,17 +602,14 @@
       <c r="I4" t="n">
         <v>64</v>
       </c>
-      <c r="J4" t="n">
-        <v>52</v>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>June 2022</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
@@ -657,17 +643,14 @@
       <c r="I5" t="n">
         <v>64</v>
       </c>
-      <c r="J5" t="n">
-        <v>52</v>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>June 2022</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
@@ -701,84 +684,78 @@
       <c r="I6" t="n">
         <v>64</v>
       </c>
-      <c r="J6" t="n">
-        <v>52</v>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>June 2022</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>P1 50</t>
+          <t>AX 02,03,11</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="C7" t="n">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="D7" t="n">
+        <v>140</v>
+      </c>
+      <c r="E7" t="n">
+        <v>124</v>
+      </c>
+      <c r="F7" t="n">
+        <v>109</v>
+      </c>
+      <c r="G7" t="n">
+        <v>95</v>
+      </c>
+      <c r="H7" t="n">
+        <v>81</v>
+      </c>
+      <c r="I7" t="n">
         <v>67</v>
       </c>
-      <c r="E7" t="n">
-        <v>58</v>
-      </c>
-      <c r="F7" t="n">
-        <v>49</v>
-      </c>
-      <c r="G7" t="n">
-        <v>40</v>
-      </c>
-      <c r="H7" t="n">
-        <v>31</v>
-      </c>
-      <c r="I7" t="n">
-        <v>22</v>
-      </c>
-      <c r="J7" t="n">
-        <v>13</v>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>June 2022</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
+          <t>November 2022</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AX 02,03,11</t>
+          <t>AY 02,03,12</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>200</v>
       </c>
       <c r="C8" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D8" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E8" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F8" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G8" t="n">
         <v>95</v>
@@ -789,40 +766,37 @@
       <c r="I8" t="n">
         <v>67</v>
       </c>
-      <c r="J8" t="n">
-        <v>53</v>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>November 2022</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AY 02,03,12</t>
+          <t>AZ 02,03,13</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>200</v>
       </c>
       <c r="C9" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D9" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E9" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F9" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G9" t="n">
         <v>95</v>
@@ -833,24 +807,21 @@
       <c r="I9" t="n">
         <v>67</v>
       </c>
-      <c r="J9" t="n">
-        <v>53</v>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>November 2022</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,03,13</t>
+          <t>FX 02,11,83</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -877,40 +848,37 @@
       <c r="I10" t="n">
         <v>67</v>
       </c>
-      <c r="J10" t="n">
-        <v>53</v>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>November 2022</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>FX 02,11,83</t>
+          <t>FY 02,12,83</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>200</v>
       </c>
       <c r="C11" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D11" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E11" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F11" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G11" t="n">
         <v>95</v>
@@ -921,40 +889,37 @@
       <c r="I11" t="n">
         <v>67</v>
       </c>
-      <c r="J11" t="n">
-        <v>53</v>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>November 2022</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>FY 02,12,83</t>
+          <t>GX 11,82,83</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>200</v>
       </c>
       <c r="C12" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D12" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E12" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F12" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G12" t="n">
         <v>95</v>
@@ -965,24 +930,21 @@
       <c r="I12" t="n">
         <v>67</v>
       </c>
-      <c r="J12" t="n">
-        <v>53</v>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>November 2022</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>GX 11,82,83</t>
+          <t>JX 11,92,93</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1009,87 +971,81 @@
       <c r="I13" t="n">
         <v>67</v>
       </c>
-      <c r="J13" t="n">
-        <v>53</v>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>November 2022</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>JX 11,92,93</t>
+          <t>AX 02,03,11</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>200</v>
       </c>
       <c r="C14" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D14" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E14" t="n">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F14" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G14" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H14" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I14" t="n">
-        <v>67</v>
-      </c>
-      <c r="J14" t="n">
-        <v>53</v>
+        <v>70</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>November 2022</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AX 02,03,11</t>
+          <t>AY 02,03,12</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>200</v>
       </c>
       <c r="C15" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D15" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E15" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F15" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G15" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H15" t="n">
         <v>84</v>
@@ -1097,43 +1053,40 @@
       <c r="I15" t="n">
         <v>70</v>
       </c>
-      <c r="J15" t="n">
-        <v>56</v>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>November 2023</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AY 02,03,12</t>
+          <t>AZ 02,03,13</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>200</v>
       </c>
       <c r="C16" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D16" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E16" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F16" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G16" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H16" t="n">
         <v>84</v>
@@ -1141,24 +1094,21 @@
       <c r="I16" t="n">
         <v>70</v>
       </c>
-      <c r="J16" t="n">
-        <v>56</v>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>November 2023</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,03,13</t>
+          <t>EX 03,11,82</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1185,24 +1135,21 @@
       <c r="I17" t="n">
         <v>70</v>
       </c>
-      <c r="J17" t="n">
-        <v>56</v>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>November 2023</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>EX 03,11,82</t>
+          <t>FX 02,11,83</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1229,43 +1176,40 @@
       <c r="I18" t="n">
         <v>70</v>
       </c>
-      <c r="J18" t="n">
-        <v>56</v>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>November 2023</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>FX 02,11,83</t>
+          <t>FY 02,12,83</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>200</v>
       </c>
       <c r="C19" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D19" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E19" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F19" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G19" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H19" t="n">
         <v>84</v>
@@ -1273,43 +1217,40 @@
       <c r="I19" t="n">
         <v>70</v>
       </c>
-      <c r="J19" t="n">
-        <v>56</v>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>November 2023</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>FY 02,12,83</t>
+          <t>GX 11,82,83</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>200</v>
       </c>
       <c r="C20" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E20" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F20" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G20" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H20" t="n">
         <v>84</v>
@@ -1317,43 +1258,40 @@
       <c r="I20" t="n">
         <v>70</v>
       </c>
-      <c r="J20" t="n">
-        <v>56</v>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>November 2023</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>GX 11,82,83</t>
+          <t>GY 12,82,83</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>200</v>
       </c>
       <c r="C21" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D21" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E21" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F21" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G21" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H21" t="n">
         <v>84</v>
@@ -1361,43 +1299,40 @@
       <c r="I21" t="n">
         <v>70</v>
       </c>
-      <c r="J21" t="n">
-        <v>56</v>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>November 2023</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>GY 12,82,83</t>
+          <t>IX 02,11,93</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>200</v>
       </c>
       <c r="C22" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D22" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E22" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F22" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G22" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H22" t="n">
         <v>84</v>
@@ -1405,24 +1340,21 @@
       <c r="I22" t="n">
         <v>70</v>
       </c>
-      <c r="J22" t="n">
-        <v>56</v>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>November 2023</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>IX 02,11,93</t>
+          <t>JX 11,92,93</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1449,43 +1381,40 @@
       <c r="I23" t="n">
         <v>70</v>
       </c>
-      <c r="J23" t="n">
-        <v>56</v>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>November 2023</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>JX 11,92,93</t>
+          <t>JY 12,92,93</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>200</v>
       </c>
       <c r="C24" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D24" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E24" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F24" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G24" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H24" t="n">
         <v>84</v>
@@ -1493,105 +1422,96 @@
       <c r="I24" t="n">
         <v>70</v>
       </c>
-      <c r="J24" t="n">
-        <v>56</v>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>November 2023</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>JY 12,92,93</t>
+          <t>AY 02,03,12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="D25" t="n">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E25" t="n">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="F25" t="n">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="G25" t="n">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="H25" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I25" t="n">
-        <v>70</v>
-      </c>
-      <c r="J25" t="n">
-        <v>56</v>
+        <v>62</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>November 2023</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
+          <t>March 2022</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>P1 50</t>
+          <t>AX 02,03,11</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="C26" t="n">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="D26" t="n">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="E26" t="n">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="F26" t="n">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="G26" t="n">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="H26" t="n">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="I26" t="n">
-        <v>24</v>
-      </c>
-      <c r="J26" t="n">
-        <v>15</v>
+        <v>67</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>November 2023</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1522,44 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="C27" t="n">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D27" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E27" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F27" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G27" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H27" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I27" t="n">
-        <v>62</v>
-      </c>
-      <c r="J27" t="n">
-        <v>49</v>
+        <v>66</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>March 2022</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AX 02,03,11</t>
+          <t>AZ 02,03,13</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1664,29 +1581,26 @@
         <v>92</v>
       </c>
       <c r="H28" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I28" t="n">
-        <v>67</v>
-      </c>
-      <c r="J28" t="n">
-        <v>54</v>
+        <v>66</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AY 02,03,12</t>
+          <t>EY 03,12,82</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1713,43 +1627,40 @@
       <c r="I29" t="n">
         <v>66</v>
       </c>
-      <c r="J29" t="n">
-        <v>53</v>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,03,13</t>
+          <t>FY 02,12,83</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>200</v>
       </c>
       <c r="C30" t="n">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D30" t="n">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E30" t="n">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F30" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G30" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H30" t="n">
         <v>79</v>
@@ -1757,68 +1668,62 @@
       <c r="I30" t="n">
         <v>66</v>
       </c>
-      <c r="J30" t="n">
-        <v>53</v>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>EY 03,12,82</t>
+          <t>GX 11,82,83</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>200</v>
       </c>
       <c r="C31" t="n">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D31" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E31" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F31" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G31" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H31" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I31" t="n">
-        <v>66</v>
-      </c>
-      <c r="J31" t="n">
-        <v>53</v>
+        <v>67</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>FY 02,12,83</t>
+          <t>GY 12,82,83</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1845,68 +1750,62 @@
       <c r="I32" t="n">
         <v>66</v>
       </c>
-      <c r="J32" t="n">
-        <v>53</v>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>GX 11,82,83</t>
+          <t>IY 02,12,93</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>200</v>
       </c>
       <c r="C33" t="n">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D33" t="n">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E33" t="n">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F33" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G33" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H33" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I33" t="n">
-        <v>67</v>
-      </c>
-      <c r="J33" t="n">
-        <v>54</v>
+        <v>66</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>GY 12,82,83</t>
+          <t>JY 12,92,93</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1933,200 +1832,185 @@
       <c r="I34" t="n">
         <v>66</v>
       </c>
-      <c r="J34" t="n">
-        <v>53</v>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>IY 02,12,93</t>
+          <t>AX 02,03,11</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>200</v>
       </c>
       <c r="C35" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D35" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E35" t="n">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F35" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G35" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H35" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I35" t="n">
-        <v>66</v>
-      </c>
-      <c r="J35" t="n">
-        <v>53</v>
+        <v>67</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>June 2023</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>JY 12,92,93</t>
+          <t>AY 02,03,12</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>200</v>
       </c>
       <c r="C36" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D36" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E36" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F36" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G36" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H36" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I36" t="n">
-        <v>66</v>
-      </c>
-      <c r="J36" t="n">
-        <v>53</v>
+        <v>67</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>June 2023</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>P1 50</t>
+          <t>AZ 02,03,13</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="C37" t="n">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="D37" t="n">
-        <v>69</v>
+        <v>139</v>
       </c>
       <c r="E37" t="n">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="F37" t="n">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="G37" t="n">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="H37" t="n">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="I37" t="n">
-        <v>24</v>
-      </c>
-      <c r="J37" t="n">
-        <v>15</v>
+        <v>67</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>June 2023</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>AX 02,03,11</t>
+          <t>EY 03,12,82</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>200</v>
       </c>
       <c r="C38" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D38" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E38" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F38" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G38" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H38" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I38" t="n">
         <v>67</v>
       </c>
-      <c r="J38" t="n">
-        <v>52</v>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>AY 02,03,12</t>
+          <t>EZ 03,13,82</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -2142,35 +2026,32 @@
         <v>123</v>
       </c>
       <c r="F39" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G39" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H39" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I39" t="n">
         <v>67</v>
       </c>
-      <c r="J39" t="n">
-        <v>53</v>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,03,13</t>
+          <t>FY 02,12,83</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2186,35 +2067,32 @@
         <v>123</v>
       </c>
       <c r="F40" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G40" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H40" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I40" t="n">
         <v>67</v>
       </c>
-      <c r="J40" t="n">
-        <v>52</v>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>EY 03,12,82</t>
+          <t>FZ 02,13,83</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2230,48 +2108,45 @@
         <v>123</v>
       </c>
       <c r="F41" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G41" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H41" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I41" t="n">
         <v>67</v>
       </c>
-      <c r="J41" t="n">
-        <v>53</v>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>EZ 03,13,82</t>
+          <t>GX 11,82,83</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>200</v>
       </c>
       <c r="C42" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D42" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E42" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F42" t="n">
         <v>108</v>
@@ -2285,24 +2160,21 @@
       <c r="I42" t="n">
         <v>67</v>
       </c>
-      <c r="J42" t="n">
-        <v>52</v>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>FY 02,12,83</t>
+          <t>GY 12,82,83</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2329,24 +2201,21 @@
       <c r="I43" t="n">
         <v>67</v>
       </c>
-      <c r="J43" t="n">
-        <v>53</v>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>FZ 02,13,83</t>
+          <t>GZ 13,82,83</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2373,68 +2242,62 @@
       <c r="I44" t="n">
         <v>67</v>
       </c>
-      <c r="J44" t="n">
-        <v>52</v>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>GX 11,82,83</t>
+          <t>IY 02,12,93</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>200</v>
       </c>
       <c r="C45" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D45" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E45" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F45" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G45" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H45" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I45" t="n">
         <v>67</v>
       </c>
-      <c r="J45" t="n">
-        <v>52</v>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>GY 12,82,83</t>
+          <t>IZ 02,13,93</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -2450,35 +2313,32 @@
         <v>123</v>
       </c>
       <c r="F46" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G46" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H46" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I46" t="n">
         <v>67</v>
       </c>
-      <c r="J46" t="n">
-        <v>53</v>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>GZ 13,82,83</t>
+          <t>JY 12,92,93</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -2494,35 +2354,32 @@
         <v>123</v>
       </c>
       <c r="F47" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G47" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H47" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I47" t="n">
         <v>67</v>
       </c>
-      <c r="J47" t="n">
-        <v>52</v>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>IY 02,12,93</t>
+          <t>JZ 13,92,93</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2538,167 +2395,155 @@
         <v>123</v>
       </c>
       <c r="F48" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G48" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H48" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I48" t="n">
         <v>67</v>
       </c>
-      <c r="J48" t="n">
-        <v>53</v>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>IZ 02,13,93</t>
+          <t>AX 02,03,11</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>200</v>
       </c>
       <c r="C49" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D49" t="n">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E49" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F49" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G49" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H49" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I49" t="n">
-        <v>67</v>
-      </c>
-      <c r="J49" t="n">
-        <v>52</v>
+        <v>76</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>June 2024</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>JY 12,92,93</t>
+          <t>AY 02,03,12</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>200</v>
       </c>
       <c r="C50" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D50" t="n">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E50" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F50" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G50" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H50" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I50" t="n">
-        <v>67</v>
-      </c>
-      <c r="J50" t="n">
-        <v>53</v>
+        <v>76</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>June 2024</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>JZ 13,92,93</t>
+          <t>AZ 02,03,13</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>200</v>
       </c>
       <c r="C51" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D51" t="n">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E51" t="n">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F51" t="n">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G51" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H51" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I51" t="n">
-        <v>67</v>
-      </c>
-      <c r="J51" t="n">
-        <v>52</v>
+        <v>76</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>June 2024</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>AX 02,03,11</t>
+          <t>EY 03,12,82</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2714,123 +2559,114 @@
         <v>127</v>
       </c>
       <c r="F52" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G52" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H52" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I52" t="n">
-        <v>76</v>
-      </c>
-      <c r="J52" t="n">
-        <v>64</v>
+        <v>77</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>June 2025</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>AY 02,03,12</t>
+          <t>EZ 03,13,82</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>200</v>
       </c>
       <c r="C53" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E53" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F53" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G53" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H53" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I53" t="n">
-        <v>76</v>
-      </c>
-      <c r="J53" t="n">
-        <v>64</v>
+        <v>77</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>June 2025</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,03,13</t>
+          <t>FY 02,12,83</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>200</v>
       </c>
       <c r="C54" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" t="n">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E54" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F54" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G54" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H54" t="n">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I54" t="n">
-        <v>76</v>
-      </c>
-      <c r="J54" t="n">
         <v>64</v>
       </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>June 2025</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>EY 03,12,82</t>
+          <t>GY 12,82,83</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2840,85 +2676,79 @@
         <v>157</v>
       </c>
       <c r="D55" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E55" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F55" t="n">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G55" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H55" t="n">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="I55" t="n">
-        <v>77</v>
-      </c>
-      <c r="J55" t="n">
         <v>65</v>
       </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>June 2025</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>EZ 03,13,82</t>
+          <t>IY 02,12,93</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>200</v>
       </c>
       <c r="C56" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D56" t="n">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E56" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F56" t="n">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G56" t="n">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="H56" t="n">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I56" t="n">
-        <v>77</v>
-      </c>
-      <c r="J56" t="n">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>June 2025</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>FY 02,12,83</t>
+          <t>JY 12,92,93</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -2934,79 +2764,73 @@
         <v>123</v>
       </c>
       <c r="F57" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G57" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H57" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I57" t="n">
-        <v>64</v>
-      </c>
-      <c r="J57" t="n">
-        <v>50</v>
+        <v>65</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>June 2025</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>GY 12,82,83</t>
+          <t>AY 02,03,12</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>200</v>
       </c>
       <c r="C58" t="n">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D58" t="n">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E58" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F58" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G58" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H58" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I58" t="n">
         <v>65</v>
       </c>
-      <c r="J58" t="n">
-        <v>51</v>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>June 2025</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
+          <t>March 2023</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>IY 02,12,93</t>
+          <t>AY 02,03,12</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -3016,122 +2840,113 @@
         <v>157</v>
       </c>
       <c r="D59" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E59" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F59" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G59" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H59" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I59" t="n">
-        <v>64</v>
-      </c>
-      <c r="J59" t="n">
-        <v>50</v>
+        <v>69</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>June 2025</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
+          <t>March 2024</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>JY 12,92,93</t>
+          <t>AY 02,03,12</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>200</v>
       </c>
       <c r="C60" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D60" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E60" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F60" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G60" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H60" t="n">
         <v>79</v>
       </c>
       <c r="I60" t="n">
-        <v>65</v>
-      </c>
-      <c r="J60" t="n">
-        <v>51</v>
+        <v>66</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>June 2025</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
+          <t>March 2025</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>AY 02,03,12</t>
+          <t>AX 02,03,11</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>200</v>
       </c>
       <c r="C61" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D61" t="n">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E61" t="n">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F61" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G61" t="n">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H61" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I61" t="n">
-        <v>65</v>
-      </c>
-      <c r="J61" t="n">
-        <v>52</v>
+        <v>70</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>March 2023</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
+          <t>November 2024</t>
         </is>
       </c>
     </row>
@@ -3145,88 +2960,82 @@
         <v>200</v>
       </c>
       <c r="C62" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D62" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E62" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F62" t="n">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G62" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H62" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I62" t="n">
-        <v>69</v>
-      </c>
-      <c r="J62" t="n">
-        <v>56</v>
+        <v>70</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>March 2024</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
+          <t>November 2024</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>AY 02,03,12</t>
+          <t>AZ 02,03,13</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>200</v>
       </c>
       <c r="C63" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D63" t="n">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E63" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F63" t="n">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G63" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="H63" t="n">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I63" t="n">
-        <v>66</v>
-      </c>
-      <c r="J63" t="n">
-        <v>53</v>
+        <v>70</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>March 2025</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>global-perspectives</t>
+          <t>November 2024</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>AX 02,03,11</t>
+          <t>EX 03,11,82</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -3253,39 +3062,40 @@
       <c r="I64" t="n">
         <v>70</v>
       </c>
-      <c r="J64" t="n">
-        <v>55</v>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>November 2024</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>AY 02,03,12</t>
+          <t>FX 02,11,83</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>200</v>
       </c>
       <c r="C65" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D65" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E65" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F65" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G65" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H65" t="n">
         <v>85</v>
@@ -3293,20 +3103,21 @@
       <c r="I65" t="n">
         <v>70</v>
       </c>
-      <c r="J65" t="n">
-        <v>55</v>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>November 2024</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,03,13</t>
+          <t>FY 02,12,83</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -3333,20 +3144,21 @@
       <c r="I66" t="n">
         <v>70</v>
       </c>
-      <c r="J66" t="n">
-        <v>55</v>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>November 2024</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>EX 03,11,82</t>
+          <t>GX 11,82,83</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -3373,39 +3185,40 @@
       <c r="I67" t="n">
         <v>70</v>
       </c>
-      <c r="J67" t="n">
-        <v>55</v>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>November 2024</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>FX 02,11,83</t>
+          <t>GY 12,82,83</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>200</v>
       </c>
       <c r="C68" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D68" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E68" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F68" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G68" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H68" t="n">
         <v>85</v>
@@ -3413,39 +3226,40 @@
       <c r="I68" t="n">
         <v>70</v>
       </c>
-      <c r="J68" t="n">
-        <v>55</v>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>November 2024</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>FY 02,12,83</t>
+          <t>IX 02,11,93</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>200</v>
       </c>
       <c r="C69" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D69" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E69" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F69" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G69" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H69" t="n">
         <v>85</v>
@@ -3453,20 +3267,21 @@
       <c r="I69" t="n">
         <v>70</v>
       </c>
-      <c r="J69" t="n">
-        <v>55</v>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>November 2024</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>GX 11,82,83</t>
+          <t>JX 11,92,93</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -3493,135 +3308,16 @@
       <c r="I70" t="n">
         <v>70</v>
       </c>
-      <c r="J70" t="n">
-        <v>55</v>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>November 2024</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>GY 12,82,83</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>200</v>
-      </c>
-      <c r="C71" t="n">
-        <v>159</v>
-      </c>
-      <c r="D71" t="n">
-        <v>144</v>
-      </c>
-      <c r="E71" t="n">
-        <v>129</v>
-      </c>
-      <c r="F71" t="n">
-        <v>115</v>
-      </c>
-      <c r="G71" t="n">
-        <v>100</v>
-      </c>
-      <c r="H71" t="n">
-        <v>85</v>
-      </c>
-      <c r="I71" t="n">
-        <v>70</v>
-      </c>
-      <c r="J71" t="n">
-        <v>55</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>IX 02,11,93</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>200</v>
-      </c>
-      <c r="C72" t="n">
-        <v>158</v>
-      </c>
-      <c r="D72" t="n">
-        <v>143</v>
-      </c>
-      <c r="E72" t="n">
-        <v>128</v>
-      </c>
-      <c r="F72" t="n">
-        <v>113</v>
-      </c>
-      <c r="G72" t="n">
-        <v>99</v>
-      </c>
-      <c r="H72" t="n">
-        <v>85</v>
-      </c>
-      <c r="I72" t="n">
-        <v>70</v>
-      </c>
-      <c r="J72" t="n">
-        <v>55</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>JX 11,92,93</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>200</v>
-      </c>
-      <c r="C73" t="n">
-        <v>158</v>
-      </c>
-      <c r="D73" t="n">
-        <v>143</v>
-      </c>
-      <c r="E73" t="n">
-        <v>128</v>
-      </c>
-      <c r="F73" t="n">
-        <v>113</v>
-      </c>
-      <c r="G73" t="n">
-        <v>99</v>
-      </c>
-      <c r="H73" t="n">
-        <v>85</v>
-      </c>
-      <c r="I73" t="n">
-        <v>70</v>
-      </c>
-      <c r="J73" t="n">
-        <v>55</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/thresholds/IGCSE/global-perspectives/global-perspectives-thresholds.xlsx
+++ b/thresholds/IGCSE/global-perspectives/global-perspectives-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,64 +698,64 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AX 02,03,11</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C7" t="n">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="D7" t="n">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="E7" t="n">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="F7" t="n">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="G7" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="H7" t="n">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="I7" t="n">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>November 2022</t>
+          <t>June 2022</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AY 02,03,12</t>
+          <t>AX 02,03,11</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>200</v>
       </c>
       <c r="C8" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D8" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E8" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F8" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G8" t="n">
         <v>95</v>
@@ -780,23 +780,23 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,03,13</t>
+          <t>AY 02,03,12</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>200</v>
       </c>
       <c r="C9" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D9" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E9" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F9" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G9" t="n">
         <v>95</v>
@@ -821,7 +821,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>FX 02,11,83</t>
+          <t>AZ 02,03,13</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -862,23 +862,23 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>FY 02,12,83</t>
+          <t>FX 02,11,83</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>200</v>
       </c>
       <c r="C11" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D11" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E11" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F11" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G11" t="n">
         <v>95</v>
@@ -903,23 +903,23 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>GX 11,82,83</t>
+          <t>FY 02,12,83</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>200</v>
       </c>
       <c r="C12" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D12" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E12" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F12" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G12" t="n">
         <v>95</v>
@@ -944,7 +944,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>JX 11,92,93</t>
+          <t>GX 11,82,83</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -985,67 +985,67 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AX 02,03,11</t>
+          <t>JX 11,92,93</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>200</v>
       </c>
       <c r="C14" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D14" t="n">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E14" t="n">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F14" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G14" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H14" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I14" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2022</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AY 02,03,12</t>
+          <t>AX 02,03,11</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>200</v>
       </c>
       <c r="C15" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D15" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E15" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F15" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G15" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H15" t="n">
         <v>84</v>
@@ -1067,26 +1067,26 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,03,13</t>
+          <t>AY 02,03,12</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>200</v>
       </c>
       <c r="C16" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D16" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E16" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F16" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G16" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16" t="n">
         <v>84</v>
@@ -1108,7 +1108,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>EX 03,11,82</t>
+          <t>AZ 02,03,13</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1149,7 +1149,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>FX 02,11,83</t>
+          <t>EX 03,11,82</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1190,26 +1190,26 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>FY 02,12,83</t>
+          <t>FX 02,11,83</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>200</v>
       </c>
       <c r="C19" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D19" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E19" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F19" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G19" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H19" t="n">
         <v>84</v>
@@ -1231,26 +1231,26 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>GX 11,82,83</t>
+          <t>FY 02,12,83</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>200</v>
       </c>
       <c r="C20" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D20" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E20" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F20" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G20" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H20" t="n">
         <v>84</v>
@@ -1272,26 +1272,26 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>GY 12,82,83</t>
+          <t>GX 11,82,83</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>200</v>
       </c>
       <c r="C21" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D21" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E21" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F21" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G21" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H21" t="n">
         <v>84</v>
@@ -1313,26 +1313,26 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>IX 02,11,93</t>
+          <t>GY 12,82,83</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>200</v>
       </c>
       <c r="C22" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D22" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E22" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F22" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G22" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H22" t="n">
         <v>84</v>
@@ -1354,7 +1354,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>JX 11,92,93</t>
+          <t>IX 02,11,93</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1395,26 +1395,26 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>JY 12,92,93</t>
+          <t>JX 11,92,93</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>200</v>
       </c>
       <c r="C24" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D24" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E24" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F24" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G24" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H24" t="n">
         <v>84</v>
@@ -1436,82 +1436,82 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AY 02,03,12</t>
+          <t>JY 12,92,93</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="C25" t="n">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="D25" t="n">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E25" t="n">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="F25" t="n">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="G25" t="n">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="H25" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I25" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>56</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>March 2022</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AX 02,03,11</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C26" t="n">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="D26" t="n">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="E26" t="n">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="F26" t="n">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="G26" t="n">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="H26" t="n">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="I26" t="n">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
@@ -1522,44 +1522,44 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D27" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E27" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F27" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G27" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H27" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I27" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>March 2022</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,03,13</t>
+          <t>AX 02,03,11</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1581,14 +1581,14 @@
         <v>92</v>
       </c>
       <c r="H28" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I28" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1600,7 +1600,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>EY 03,12,82</t>
+          <t>AY 02,03,12</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1641,26 +1641,26 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>FY 02,12,83</t>
+          <t>AZ 02,03,13</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>200</v>
       </c>
       <c r="C30" t="n">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D30" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E30" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F30" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G30" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H30" t="n">
         <v>79</v>
@@ -1682,36 +1682,36 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>GX 11,82,83</t>
+          <t>EY 03,12,82</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>200</v>
       </c>
       <c r="C31" t="n">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D31" t="n">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E31" t="n">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F31" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G31" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H31" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I31" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -1723,7 +1723,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>GY 12,82,83</t>
+          <t>FY 02,12,83</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1764,36 +1764,36 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>IY 02,12,93</t>
+          <t>GX 11,82,83</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>200</v>
       </c>
       <c r="C33" t="n">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D33" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E33" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F33" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G33" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H33" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I33" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -1805,7 +1805,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>JY 12,92,93</t>
+          <t>GY 12,82,83</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1846,73 +1846,73 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AX 02,03,11</t>
+          <t>IY 02,12,93</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>200</v>
       </c>
       <c r="C35" t="n">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D35" t="n">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E35" t="n">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F35" t="n">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G35" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H35" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I35" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>AY 02,03,12</t>
+          <t>JY 12,92,93</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>200</v>
       </c>
       <c r="C36" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D36" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E36" t="n">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F36" t="n">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G36" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H36" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I36" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -1921,84 +1921,84 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,03,13</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C37" t="n">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="D37" t="n">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="E37" t="n">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="F37" t="n">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="G37" t="n">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="H37" t="n">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="I37" t="n">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>EY 03,12,82</t>
+          <t>AX 02,03,11</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>200</v>
       </c>
       <c r="C38" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D38" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E38" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F38" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G38" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H38" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I38" t="n">
         <v>67</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2010,7 +2010,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>EZ 03,13,82</t>
+          <t>AY 02,03,12</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -2026,20 +2026,20 @@
         <v>123</v>
       </c>
       <c r="F39" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G39" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H39" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I39" t="n">
         <v>67</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2051,7 +2051,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>FY 02,12,83</t>
+          <t>AZ 02,03,13</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2067,20 +2067,20 @@
         <v>123</v>
       </c>
       <c r="F40" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G40" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H40" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I40" t="n">
         <v>67</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2092,7 +2092,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>FZ 02,13,83</t>
+          <t>EY 03,12,82</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2108,20 +2108,20 @@
         <v>123</v>
       </c>
       <c r="F41" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G41" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H41" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I41" t="n">
         <v>67</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2133,20 +2133,20 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>GX 11,82,83</t>
+          <t>EZ 03,13,82</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>200</v>
       </c>
       <c r="C42" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D42" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E42" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F42" t="n">
         <v>108</v>
@@ -2174,7 +2174,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>GY 12,82,83</t>
+          <t>FY 02,12,83</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2215,7 +2215,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>GZ 13,82,83</t>
+          <t>FZ 02,13,83</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2256,36 +2256,36 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>IY 02,12,93</t>
+          <t>GX 11,82,83</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>200</v>
       </c>
       <c r="C45" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D45" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E45" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F45" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G45" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H45" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I45" t="n">
         <v>67</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2297,7 +2297,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>IZ 02,13,93</t>
+          <t>GY 12,82,83</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -2313,20 +2313,20 @@
         <v>123</v>
       </c>
       <c r="F46" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G46" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H46" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I46" t="n">
         <v>67</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2338,7 +2338,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>JY 12,92,93</t>
+          <t>GZ 13,82,83</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -2354,20 +2354,20 @@
         <v>123</v>
       </c>
       <c r="F47" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G47" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H47" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I47" t="n">
         <v>67</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -2379,7 +2379,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>JZ 13,92,93</t>
+          <t>IY 02,12,93</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2395,20 +2395,20 @@
         <v>123</v>
       </c>
       <c r="F48" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G48" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H48" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I48" t="n">
         <v>67</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -2420,130 +2420,130 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>AX 02,03,11</t>
+          <t>IZ 02,13,93</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>200</v>
       </c>
       <c r="C49" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D49" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E49" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F49" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G49" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H49" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I49" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>AY 02,03,12</t>
+          <t>JY 12,92,93</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>200</v>
       </c>
       <c r="C50" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D50" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E50" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F50" t="n">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G50" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H50" t="n">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I50" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,03,13</t>
+          <t>JZ 13,92,93</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>200</v>
       </c>
       <c r="C51" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D51" t="n">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E51" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F51" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G51" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H51" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I51" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>EY 03,12,82</t>
+          <t>AX 02,03,11</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2559,20 +2559,20 @@
         <v>127</v>
       </c>
       <c r="F52" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G52" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H52" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I52" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -2584,36 +2584,36 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>EZ 03,13,82</t>
+          <t>AY 02,03,12</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>200</v>
       </c>
       <c r="C53" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E53" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F53" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G53" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H53" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I53" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -2625,36 +2625,36 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>FY 02,12,83</t>
+          <t>AZ 02,03,13</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>200</v>
       </c>
       <c r="C54" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D54" t="n">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E54" t="n">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F54" t="n">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G54" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="H54" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I54" t="n">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>64</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -2666,7 +2666,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>GY 12,82,83</t>
+          <t>EY 03,12,82</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2676,26 +2676,26 @@
         <v>157</v>
       </c>
       <c r="D55" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E55" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F55" t="n">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G55" t="n">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="H55" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I55" t="n">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -2707,36 +2707,36 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>IY 02,12,93</t>
+          <t>EZ 03,13,82</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>200</v>
       </c>
       <c r="C56" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D56" t="n">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E56" t="n">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F56" t="n">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G56" t="n">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="H56" t="n">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I56" t="n">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -2748,7 +2748,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>JY 12,92,93</t>
+          <t>FY 02,12,83</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -2764,20 +2764,20 @@
         <v>123</v>
       </c>
       <c r="F57" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G57" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H57" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I57" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -2789,48 +2789,48 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>AY 02,03,12</t>
+          <t>GY 12,82,83</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>200</v>
       </c>
       <c r="C58" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D58" t="n">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E58" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F58" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G58" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H58" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I58" t="n">
         <v>65</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>51</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>March 2023</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>AY 02,03,12</t>
+          <t>IY 02,12,93</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2840,113 +2840,113 @@
         <v>157</v>
       </c>
       <c r="D59" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E59" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F59" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G59" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H59" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I59" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>March 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>AY 02,03,12</t>
+          <t>JY 12,92,93</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>200</v>
       </c>
       <c r="C60" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D60" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E60" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F60" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G60" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H60" t="n">
         <v>79</v>
       </c>
       <c r="I60" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>March 2025</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>AX 02,03,11</t>
+          <t>AY 02,03,12</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>200</v>
       </c>
       <c r="C61" t="n">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D61" t="n">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E61" t="n">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F61" t="n">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G61" t="n">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H61" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I61" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>March 2023</t>
         </is>
       </c>
     </row>
@@ -2960,82 +2960,82 @@
         <v>200</v>
       </c>
       <c r="C62" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D62" t="n">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E62" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F62" t="n">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G62" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H62" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I62" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>56</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>March 2024</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,03,13</t>
+          <t>AY 02,03,12</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>200</v>
       </c>
       <c r="C63" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D63" t="n">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E63" t="n">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F63" t="n">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G63" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H63" t="n">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I63" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>March 2025</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>EX 03,11,82</t>
+          <t>AX 02,03,11</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -3076,26 +3076,26 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>FX 02,11,83</t>
+          <t>AY 02,03,12</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>200</v>
       </c>
       <c r="C65" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D65" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E65" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F65" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G65" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H65" t="n">
         <v>85</v>
@@ -3117,7 +3117,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>FY 02,12,83</t>
+          <t>AZ 02,03,13</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -3158,7 +3158,7 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>GX 11,82,83</t>
+          <t>EX 03,11,82</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -3199,26 +3199,26 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>GY 12,82,83</t>
+          <t>FX 02,11,83</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>200</v>
       </c>
       <c r="C68" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D68" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E68" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F68" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G68" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H68" t="n">
         <v>85</v>
@@ -3240,26 +3240,26 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>IX 02,11,93</t>
+          <t>FY 02,12,83</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>200</v>
       </c>
       <c r="C69" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D69" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E69" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F69" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G69" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H69" t="n">
         <v>85</v>
@@ -3281,7 +3281,7 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>JX 11,92,93</t>
+          <t>GX 11,82,83</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -3314,6 +3314,129 @@
         </is>
       </c>
       <c r="K70" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>GY 12,82,83</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>200</v>
+      </c>
+      <c r="C71" t="n">
+        <v>159</v>
+      </c>
+      <c r="D71" t="n">
+        <v>144</v>
+      </c>
+      <c r="E71" t="n">
+        <v>129</v>
+      </c>
+      <c r="F71" t="n">
+        <v>115</v>
+      </c>
+      <c r="G71" t="n">
+        <v>100</v>
+      </c>
+      <c r="H71" t="n">
+        <v>85</v>
+      </c>
+      <c r="I71" t="n">
+        <v>70</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>IX 02,11,93</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>200</v>
+      </c>
+      <c r="C72" t="n">
+        <v>158</v>
+      </c>
+      <c r="D72" t="n">
+        <v>143</v>
+      </c>
+      <c r="E72" t="n">
+        <v>128</v>
+      </c>
+      <c r="F72" t="n">
+        <v>113</v>
+      </c>
+      <c r="G72" t="n">
+        <v>99</v>
+      </c>
+      <c r="H72" t="n">
+        <v>85</v>
+      </c>
+      <c r="I72" t="n">
+        <v>70</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>JX 11,92,93</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>200</v>
+      </c>
+      <c r="C73" t="n">
+        <v>158</v>
+      </c>
+      <c r="D73" t="n">
+        <v>143</v>
+      </c>
+      <c r="E73" t="n">
+        <v>128</v>
+      </c>
+      <c r="F73" t="n">
+        <v>113</v>
+      </c>
+      <c r="G73" t="n">
+        <v>99</v>
+      </c>
+      <c r="H73" t="n">
+        <v>85</v>
+      </c>
+      <c r="I73" t="n">
+        <v>70</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
         <is>
           <t>November 2024</t>
         </is>
